--- a/Primary widget-area/Account/Test Cases - Account .xlsx
+++ b/Primary widget-area/Account/Test Cases - Account .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Primary widget-area\Account\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Primary widget-area\Account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4272CA-9070-4ADC-BEB0-DD5DD5CAD674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B86B19-01F5-42F4-BC10-3E2F97000750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="287">
   <si>
     <t>Project Name</t>
   </si>
@@ -387,20 +388,11 @@
     <t>Login / New User</t>
   </si>
   <si>
-    <t>To be in Any Of Account Pages</t>
-  </si>
-  <si>
     <t>1- EX : Go To https://academybugs.com/account/?ec_page=login
 2- Navigate To Returning Customer</t>
   </si>
   <si>
-    <t xml:space="preserve">To be in Login Page </t>
-  </si>
-  <si>
     <t>register / Returning Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be in register Page </t>
   </si>
   <si>
     <t>1- Go To https://academybugs.com/account/?ec_page=register
@@ -1461,9 +1453,6 @@
     <t>Forget Password / Returning Customer</t>
   </si>
   <si>
-    <t xml:space="preserve">To be in forget password Page </t>
-  </si>
-  <si>
     <t>1- Go To https://academybugs.com/account/?ec_page=forgot_password
 2- Navigate To Returning Customer</t>
   </si>
@@ -1641,9 +1630,6 @@
     <t xml:space="preserve">Trainee Can review the orders that had been placed </t>
   </si>
   <si>
-    <t xml:space="preserve">To be in any product Page </t>
-  </si>
-  <si>
     <t>1- Go To https://academybugs.com/find-bugs/
 2- open any product
 3- navigate to Your Account
@@ -1666,6 +1652,24 @@
   </si>
   <si>
     <t>27/3/2025</t>
+  </si>
+  <si>
+    <t>The current page must be one of the account pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the current page is the  Login Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the current page is the  register Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the current page is the  forget password Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the current page is the  any product Page </t>
+  </si>
+  <si>
+    <t>A registered email address must be available</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2004,10 +2008,16 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,15 +2027,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,6 +2064,12 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2942,8 +2949,8 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2961,75 +2968,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="53.25" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="51" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="39.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -3071,12 +3078,12 @@
         <v>42</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="10" t="s">
         <v>43</v>
       </c>
@@ -3091,24 +3098,24 @@
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>70</v>
+      <c r="D8" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>18</v>
@@ -3118,11 +3125,13 @@
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="28" t="s">
+        <v>286</v>
+      </c>
       <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
@@ -3143,13 +3152,15 @@
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>52</v>
@@ -3168,20 +3179,20 @@
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>75</v>
+      </c>
+      <c r="D11" s="30"/>
       <c r="E11" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>15</v>
@@ -3191,17 +3202,19 @@
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
@@ -3216,15 +3229,15 @@
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="11" t="s">
         <v>64</v>
       </c>
@@ -3239,24 +3252,24 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>72</v>
+      <c r="D14" s="28" t="s">
+        <v>283</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>15</v>
@@ -3266,13 +3279,15 @@
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="28" t="s">
+        <v>286</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>51</v>
@@ -3291,13 +3306,15 @@
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="29" t="s">
+        <v>283</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>52</v>
@@ -3306,7 +3323,7 @@
         <v>53</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>15</v>
@@ -3316,20 +3333,20 @@
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="D17" s="30"/>
       <c r="E17" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>15</v>
@@ -3339,24 +3356,24 @@
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>236</v>
+      <c r="B18" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>15</v>
@@ -3366,22 +3383,22 @@
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="D19" s="31"/>
       <c r="E19" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>15</v>
@@ -3391,22 +3408,22 @@
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="D20" s="31"/>
       <c r="E20" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>15</v>
@@ -3416,22 +3433,22 @@
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>15</v>
@@ -3441,22 +3458,22 @@
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>15</v>
@@ -3466,22 +3483,22 @@
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>15</v>
@@ -3491,22 +3508,22 @@
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>15</v>
@@ -3517,23 +3534,23 @@
         <v>37</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>15</v>
@@ -3544,21 +3561,21 @@
         <v>38</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="D26" s="31"/>
       <c r="E26" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>18</v>
@@ -3569,21 +3586,21 @@
         <v>39</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="D27" s="31"/>
       <c r="E27" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>18</v>
@@ -3594,21 +3611,21 @@
         <v>40</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="34"/>
+        <v>130</v>
+      </c>
+      <c r="D28" s="31"/>
       <c r="E28" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>15</v>
@@ -3616,24 +3633,24 @@
     </row>
     <row r="29" spans="1:9" ht="351.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="D29" s="30"/>
       <c r="E29" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>15</v>
@@ -3641,26 +3658,26 @@
     </row>
     <row r="30" spans="1:9" ht="401.25" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>142</v>
+        <v>83</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>70</v>
+        <v>143</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>15</v>
@@ -3668,24 +3685,24 @@
     </row>
     <row r="31" spans="1:9" ht="409.6" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="31"/>
+        <v>177</v>
+      </c>
+      <c r="B31" s="33"/>
       <c r="C31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="H31" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>18</v>
@@ -3693,24 +3710,24 @@
     </row>
     <row r="32" spans="1:9" ht="409.6" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="31"/>
+        <v>187</v>
+      </c>
+      <c r="B32" s="33"/>
       <c r="C32" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="34"/>
+        <v>151</v>
+      </c>
+      <c r="D32" s="31"/>
       <c r="E32" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>15</v>
@@ -3718,24 +3735,24 @@
     </row>
     <row r="33" spans="1:9" ht="409.6" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="B33" s="33"/>
       <c r="C33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="H33" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>15</v>
@@ -3743,22 +3760,22 @@
     </row>
     <row r="34" spans="1:9" ht="409.6" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="32"/>
+        <v>197</v>
+      </c>
+      <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>18</v>
@@ -3766,26 +3783,26 @@
     </row>
     <row r="35" spans="1:9" ht="401.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>163</v>
+        <v>198</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>70</v>
+        <v>161</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>15</v>
@@ -3793,24 +3810,24 @@
     </row>
     <row r="36" spans="1:9" ht="409.6" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="31"/>
+        <v>199</v>
+      </c>
+      <c r="B36" s="33"/>
       <c r="C36" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="D36" s="31"/>
       <c r="E36" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>15</v>
@@ -3818,24 +3835,24 @@
     </row>
     <row r="37" spans="1:9" ht="409.6" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="31"/>
+        <v>220</v>
+      </c>
+      <c r="B37" s="33"/>
       <c r="C37" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="34"/>
+        <v>163</v>
+      </c>
+      <c r="D37" s="31"/>
       <c r="E37" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>15</v>
@@ -3843,24 +3860,24 @@
     </row>
     <row r="38" spans="1:9" ht="409.6" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B38" s="31"/>
+        <v>221</v>
+      </c>
+      <c r="B38" s="33"/>
       <c r="C38" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="34"/>
+        <v>164</v>
+      </c>
+      <c r="D38" s="31"/>
       <c r="E38" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F38" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="H38" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>15</v>
@@ -3868,22 +3885,22 @@
     </row>
     <row r="39" spans="1:9" ht="409.6" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" s="32"/>
+        <v>241</v>
+      </c>
+      <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="35"/>
+        <v>165</v>
+      </c>
+      <c r="D39" s="30"/>
       <c r="E39" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>15</v>
@@ -3891,28 +3908,28 @@
     </row>
     <row r="40" spans="1:9" ht="409.6" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="G40" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>15</v>
@@ -3920,24 +3937,24 @@
     </row>
     <row r="41" spans="1:9" ht="409.6" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B41" s="31"/>
+        <v>243</v>
+      </c>
+      <c r="B41" s="33"/>
       <c r="C41" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>15</v>
@@ -3945,24 +3962,24 @@
     </row>
     <row r="42" spans="1:9" ht="409.6" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B42" s="31"/>
+        <v>244</v>
+      </c>
+      <c r="B42" s="33"/>
       <c r="C42" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="34"/>
+        <v>188</v>
+      </c>
+      <c r="D42" s="31"/>
       <c r="E42" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>15</v>
@@ -3970,22 +3987,22 @@
     </row>
     <row r="43" spans="1:9" ht="330">
       <c r="A43" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="32"/>
+        <v>245</v>
+      </c>
+      <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="35"/>
+        <v>179</v>
+      </c>
+      <c r="D43" s="30"/>
       <c r="E43" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>15</v>
@@ -3993,28 +4010,28 @@
     </row>
     <row r="44" spans="1:9" ht="409.6" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="G44" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>15</v>
@@ -4022,24 +4039,24 @@
     </row>
     <row r="45" spans="1:9" ht="409.6" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B45" s="31"/>
+        <v>262</v>
+      </c>
+      <c r="B45" s="33"/>
       <c r="C45" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>15</v>
@@ -4047,24 +4064,24 @@
     </row>
     <row r="46" spans="1:9" ht="409.6" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="31"/>
+        <v>263</v>
+      </c>
+      <c r="B46" s="33"/>
       <c r="C46" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="34"/>
+        <v>201</v>
+      </c>
+      <c r="D46" s="31"/>
       <c r="E46" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>18</v>
@@ -4072,24 +4089,24 @@
     </row>
     <row r="47" spans="1:9" ht="390">
       <c r="A47" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="32"/>
+        <v>264</v>
+      </c>
+      <c r="B47" s="34"/>
       <c r="C47" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="20" t="s">
+      <c r="H47" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>15</v>
@@ -4097,26 +4114,26 @@
     </row>
     <row r="48" spans="1:9" ht="409.6" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>70</v>
+        <v>224</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>15</v>
@@ -4124,26 +4141,26 @@
     </row>
     <row r="49" spans="1:9" ht="409.6" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>70</v>
+        <v>229</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>15</v>
@@ -4151,26 +4168,26 @@
     </row>
     <row r="50" spans="1:9" ht="405.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>249</v>
+        <v>267</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>246</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>250</v>
+        <v>71</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>15</v>
@@ -4178,15 +4195,15 @@
     </row>
     <row r="51" spans="1:9" ht="249.95" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B51" s="31"/>
+        <v>268</v>
+      </c>
+      <c r="B51" s="33"/>
       <c r="C51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="34"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>51</v>
@@ -4203,15 +4220,17 @@
     </row>
     <row r="52" spans="1:9" ht="279.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="31"/>
+        <v>269</v>
+      </c>
+      <c r="B52" s="33"/>
       <c r="C52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="17" t="s">
+        <v>284</v>
+      </c>
       <c r="E52" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>52</v>
@@ -4220,7 +4239,7 @@
         <v>53</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>15</v>
@@ -4228,22 +4247,24 @@
     </row>
     <row r="53" spans="1:9" ht="279.75" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="32"/>
+        <v>270</v>
+      </c>
+      <c r="B53" s="34"/>
       <c r="C53" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>284</v>
+      </c>
       <c r="E53" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>15</v>
@@ -4251,28 +4272,28 @@
     </row>
     <row r="54" spans="1:9" ht="409.6" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B54" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>18</v>
@@ -4280,26 +4301,26 @@
     </row>
     <row r="55" spans="1:9" ht="409.6" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>18</v>
@@ -4307,74 +4328,74 @@
     </row>
     <row r="56" spans="1:9" ht="409.6" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I56" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D40:D43"/>
+  <mergeCells count="31">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="A57:I59"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -4387,16 +4408,17 @@
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D8:D13"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D40:D43"/>
   </mergeCells>
   <conditionalFormatting sqref="I13 I18:I28 I8:I11">
     <cfRule type="cellIs" dxfId="79" priority="129" operator="equal">
